--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\Desktop\ABB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A827E-F825-480C-893C-3982954FEFF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99EA9B3A-9F58-45F5-9510-554FE7CB37DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="All Customers" sheetId="1" r:id="rId1"/>
+    <sheet name="Predicted exits" sheetId="2" r:id="rId2"/>
+    <sheet name="Exited Customers" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$1483</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Customers'!$E$1:$E$1483</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exited Customers'!$A$2:$H$183</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5530" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6085" uniqueCount="658">
   <si>
     <t>SlNo</t>
   </si>
@@ -1991,13 +1988,25 @@
   </si>
   <si>
     <t>Predicted</t>
+  </si>
+  <si>
+    <t>EXIT CUSTOMER LIST</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>1 - Predicted True</t>
+  </si>
+  <si>
+    <t>0 - Predicted False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2005,16 +2014,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2022,12 +2077,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2344,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,7 +2625,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
@@ -2514,7 +2703,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
@@ -2540,7 +2729,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
@@ -3060,7 +3249,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
@@ -3502,7 +3691,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
@@ -4282,7 +4471,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C75" t="s">
@@ -4412,7 +4601,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C80" t="s">
@@ -4568,7 +4757,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C86" t="s">
@@ -4698,7 +4887,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C91" t="s">
@@ -5140,7 +5329,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C108" t="s">
@@ -5322,7 +5511,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C115" t="s">
@@ -6050,7 +6239,7 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C143" t="s">
@@ -6492,7 +6681,7 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C160" t="s">
@@ -7038,7 +7227,7 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C181" t="s">
@@ -7298,7 +7487,7 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C191" t="s">
@@ -7376,7 +7565,7 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C194" t="s">
@@ -7558,7 +7747,7 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C201" t="s">
@@ -7688,7 +7877,7 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C206" t="s">
@@ -8000,7 +8189,7 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C218" t="s">
@@ -8130,7 +8319,7 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C223" t="s">
@@ -8182,7 +8371,7 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C225" t="s">
@@ -8260,7 +8449,7 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C228" t="s">
@@ -8572,7 +8761,7 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C240" t="s">
@@ -8624,7 +8813,7 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C242" t="s">
@@ -8676,7 +8865,7 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C244" t="s">
@@ -8728,7 +8917,7 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C246" t="s">
@@ -8962,7 +9151,7 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C255" t="s">
@@ -9170,7 +9359,7 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C263" t="s">
@@ -9508,7 +9697,7 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C276" t="s">
@@ -9846,7 +10035,7 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C289" t="s">
@@ -10314,7 +10503,7 @@
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C307" t="s">
@@ -10340,7 +10529,7 @@
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C308" t="s">
@@ -11016,7 +11205,7 @@
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C334" t="s">
@@ -11068,7 +11257,7 @@
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C336" t="s">
@@ -11822,7 +12011,7 @@
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C365" t="s">
@@ -11874,7 +12063,7 @@
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C367" t="s">
@@ -11926,7 +12115,7 @@
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C369" t="s">
@@ -12004,7 +12193,7 @@
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C372" t="s">
@@ -12160,7 +12349,7 @@
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C378" t="s">
@@ -12186,7 +12375,7 @@
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C379" t="s">
@@ -12264,7 +12453,7 @@
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C382" t="s">
@@ -12394,7 +12583,7 @@
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C387" t="s">
@@ -12446,7 +12635,7 @@
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C389" t="s">
@@ -12914,7 +13103,7 @@
       <c r="A407">
         <v>406</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C407" t="s">
@@ -13226,7 +13415,7 @@
       <c r="A419">
         <v>418</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C419" t="s">
@@ -13356,7 +13545,7 @@
       <c r="A424">
         <v>423</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C424" t="s">
@@ -13408,7 +13597,7 @@
       <c r="A426">
         <v>425</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C426" t="s">
@@ -13434,7 +13623,7 @@
       <c r="A427">
         <v>426</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C427" t="s">
@@ -13564,7 +13753,7 @@
       <c r="A432">
         <v>431</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C432" t="s">
@@ -13720,7 +13909,7 @@
       <c r="A438">
         <v>437</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C438" t="s">
@@ -13954,7 +14143,7 @@
       <c r="A447">
         <v>446</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C447" t="s">
@@ -14136,7 +14325,7 @@
       <c r="A454">
         <v>453</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C454" t="s">
@@ -14214,7 +14403,7 @@
       <c r="A457">
         <v>456</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C457" t="s">
@@ -14630,7 +14819,7 @@
       <c r="A473">
         <v>472</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C473" t="s">
@@ -14682,7 +14871,7 @@
       <c r="A475">
         <v>474</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C475" t="s">
@@ -15150,7 +15339,7 @@
       <c r="A493">
         <v>493</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C493" t="s">
@@ -15254,7 +15443,7 @@
       <c r="A497">
         <v>497</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C497" t="s">
@@ -15358,7 +15547,7 @@
       <c r="A501">
         <v>502</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C501" t="s">
@@ -15592,7 +15781,7 @@
       <c r="A510">
         <v>511</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C510" t="s">
@@ -15982,7 +16171,7 @@
       <c r="A525">
         <v>526</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C525" t="s">
@@ -16034,7 +16223,7 @@
       <c r="A527">
         <v>528</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C527" t="s">
@@ -16060,7 +16249,7 @@
       <c r="A528">
         <v>529</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C528" t="s">
@@ -16944,7 +17133,7 @@
       <c r="A562">
         <v>563</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="1" t="s">
         <v>317</v>
       </c>
       <c r="C562" t="s">
@@ -17178,7 +17367,7 @@
       <c r="A571">
         <v>572</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C571" t="s">
@@ -17256,7 +17445,7 @@
       <c r="A574">
         <v>575</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B574" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C574" t="s">
@@ -17282,7 +17471,7 @@
       <c r="A575">
         <v>576</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C575" t="s">
@@ -17308,7 +17497,7 @@
       <c r="A576">
         <v>577</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C576" t="s">
@@ -17334,7 +17523,7 @@
       <c r="A577">
         <v>578</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C577" t="s">
@@ -17412,7 +17601,7 @@
       <c r="A580">
         <v>581</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B580" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C580" t="s">
@@ -17464,7 +17653,7 @@
       <c r="A582">
         <v>583</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C582" t="s">
@@ -17594,7 +17783,7 @@
       <c r="A587">
         <v>588</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C587" t="s">
@@ -17646,7 +17835,7 @@
       <c r="A589">
         <v>590</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C589" t="s">
@@ -17828,7 +18017,7 @@
       <c r="A596">
         <v>597</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B596" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C596" t="s">
@@ -17932,7 +18121,7 @@
       <c r="A600">
         <v>601</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C600" t="s">
@@ -18478,7 +18667,7 @@
       <c r="A621">
         <v>622</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C621" t="s">
@@ -18530,7 +18719,7 @@
       <c r="A623">
         <v>624</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C623" t="s">
@@ -18556,7 +18745,7 @@
       <c r="A624">
         <v>625</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C624" t="s">
@@ -18972,7 +19161,7 @@
       <c r="A640">
         <v>641</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="1" t="s">
         <v>354</v>
       </c>
       <c r="C640" t="s">
@@ -19466,7 +19655,7 @@
       <c r="A659">
         <v>660</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B659" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C659" t="s">
@@ -19804,7 +19993,7 @@
       <c r="A672">
         <v>673</v>
       </c>
-      <c r="B672" t="s">
+      <c r="B672" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C672" t="s">
@@ -20246,7 +20435,7 @@
       <c r="A689">
         <v>690</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B689" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C689" t="s">
@@ -20272,7 +20461,7 @@
       <c r="A690">
         <v>691</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B690" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C690" t="s">
@@ -20324,7 +20513,7 @@
       <c r="A692">
         <v>693</v>
       </c>
-      <c r="B692" t="s">
+      <c r="B692" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C692" t="s">
@@ -20350,7 +20539,7 @@
       <c r="A693">
         <v>694</v>
       </c>
-      <c r="B693" t="s">
+      <c r="B693" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C693" t="s">
@@ -20818,7 +21007,7 @@
       <c r="A711">
         <v>712</v>
       </c>
-      <c r="B711" t="s">
+      <c r="B711" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C711" t="s">
@@ -21364,7 +21553,7 @@
       <c r="A732">
         <v>733</v>
       </c>
-      <c r="B732" t="s">
+      <c r="B732" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C732" t="s">
@@ -21390,7 +21579,7 @@
       <c r="A733">
         <v>734</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B733" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C733" t="s">
@@ -21442,7 +21631,7 @@
       <c r="A735">
         <v>736</v>
       </c>
-      <c r="B735" t="s">
+      <c r="B735" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C735" t="s">
@@ -21520,7 +21709,7 @@
       <c r="A738">
         <v>739</v>
       </c>
-      <c r="B738" t="s">
+      <c r="B738" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C738" t="s">
@@ -21572,7 +21761,7 @@
       <c r="A740">
         <v>741</v>
       </c>
-      <c r="B740" t="s">
+      <c r="B740" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C740" t="s">
@@ -21650,7 +21839,7 @@
       <c r="A743">
         <v>744</v>
       </c>
-      <c r="B743" t="s">
+      <c r="B743" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C743" t="s">
@@ -21832,7 +22021,7 @@
       <c r="A750">
         <v>751</v>
       </c>
-      <c r="B750" t="s">
+      <c r="B750" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C750" t="s">
@@ -21936,7 +22125,7 @@
       <c r="A754">
         <v>755</v>
       </c>
-      <c r="B754" t="s">
+      <c r="B754" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C754" t="s">
@@ -22040,7 +22229,7 @@
       <c r="A758">
         <v>759</v>
       </c>
-      <c r="B758" t="s">
+      <c r="B758" s="1" t="s">
         <v>405</v>
       </c>
       <c r="C758" t="s">
@@ -22248,7 +22437,7 @@
       <c r="A766">
         <v>767</v>
       </c>
-      <c r="B766" t="s">
+      <c r="B766" s="1" t="s">
         <v>412</v>
       </c>
       <c r="C766" t="s">
@@ -22846,7 +23035,7 @@
       <c r="A789">
         <v>790</v>
       </c>
-      <c r="B789" t="s">
+      <c r="B789" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C789" t="s">
@@ -22950,7 +23139,7 @@
       <c r="A793">
         <v>794</v>
       </c>
-      <c r="B793" t="s">
+      <c r="B793" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C793" t="s">
@@ -23262,7 +23451,7 @@
       <c r="A805">
         <v>806</v>
       </c>
-      <c r="B805" t="s">
+      <c r="B805" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C805" t="s">
@@ -23756,7 +23945,7 @@
       <c r="A824">
         <v>825</v>
       </c>
-      <c r="B824" t="s">
+      <c r="B824" s="1" t="s">
         <v>431</v>
       </c>
       <c r="C824" t="s">
@@ -23834,7 +24023,7 @@
       <c r="A827">
         <v>828</v>
       </c>
-      <c r="B827" t="s">
+      <c r="B827" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C827" t="s">
@@ -24354,7 +24543,7 @@
       <c r="A847">
         <v>849</v>
       </c>
-      <c r="B847" t="s">
+      <c r="B847" s="1" t="s">
         <v>442</v>
       </c>
       <c r="C847" t="s">
@@ -24536,7 +24725,7 @@
       <c r="A854">
         <v>856</v>
       </c>
-      <c r="B854" t="s">
+      <c r="B854" s="1" t="s">
         <v>446</v>
       </c>
       <c r="C854" t="s">
@@ -25004,7 +25193,7 @@
       <c r="A872">
         <v>874</v>
       </c>
-      <c r="B872" t="s">
+      <c r="B872" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C872" t="s">
@@ -25082,7 +25271,7 @@
       <c r="A875">
         <v>877</v>
       </c>
-      <c r="B875" t="s">
+      <c r="B875" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C875" t="s">
@@ -25368,7 +25557,7 @@
       <c r="A886">
         <v>888</v>
       </c>
-      <c r="B886" t="s">
+      <c r="B886" s="1" t="s">
         <v>457</v>
       </c>
       <c r="C886" t="s">
@@ -25420,7 +25609,7 @@
       <c r="A888">
         <v>890</v>
       </c>
-      <c r="B888" t="s">
+      <c r="B888" s="1" t="s">
         <v>458</v>
       </c>
       <c r="C888" t="s">
@@ -26018,7 +26207,7 @@
       <c r="A911">
         <v>913</v>
       </c>
-      <c r="B911" t="s">
+      <c r="B911" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C911" t="s">
@@ -26148,7 +26337,7 @@
       <c r="A916">
         <v>918</v>
       </c>
-      <c r="B916" t="s">
+      <c r="B916" s="1" t="s">
         <v>468</v>
       </c>
       <c r="C916" t="s">
@@ -26434,7 +26623,7 @@
       <c r="A927">
         <v>929</v>
       </c>
-      <c r="B927" t="s">
+      <c r="B927" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C927" t="s">
@@ -27292,7 +27481,7 @@
       <c r="A960">
         <v>962</v>
       </c>
-      <c r="B960" t="s">
+      <c r="B960" s="1" t="s">
         <v>484</v>
       </c>
       <c r="C960" t="s">
@@ -27890,7 +28079,7 @@
       <c r="A983">
         <v>985</v>
       </c>
-      <c r="B983" t="s">
+      <c r="B983" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C983" t="s">
@@ -28358,7 +28547,7 @@
       <c r="A1001">
         <v>1003</v>
       </c>
-      <c r="B1001" t="s">
+      <c r="B1001" s="1" t="s">
         <v>495</v>
       </c>
       <c r="C1001" t="s">
@@ -28410,7 +28599,7 @@
       <c r="A1003">
         <v>1005</v>
       </c>
-      <c r="B1003" t="s">
+      <c r="B1003" s="1" t="s">
         <v>496</v>
       </c>
       <c r="C1003" t="s">
@@ -28540,7 +28729,7 @@
       <c r="A1008">
         <v>1010</v>
       </c>
-      <c r="B1008" t="s">
+      <c r="B1008" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C1008" t="s">
@@ -28592,7 +28781,7 @@
       <c r="A1010">
         <v>1012</v>
       </c>
-      <c r="B1010" t="s">
+      <c r="B1010" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C1010" t="s">
@@ -28696,7 +28885,7 @@
       <c r="A1014">
         <v>1016</v>
       </c>
-      <c r="B1014" t="s">
+      <c r="B1014" s="1" t="s">
         <v>468</v>
       </c>
       <c r="C1014" t="s">
@@ -29320,7 +29509,7 @@
       <c r="A1038">
         <v>1040</v>
       </c>
-      <c r="B1038" t="s">
+      <c r="B1038" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C1038" t="s">
@@ -29814,7 +30003,7 @@
       <c r="A1057">
         <v>1059</v>
       </c>
-      <c r="B1057" t="s">
+      <c r="B1057" s="1" t="s">
         <v>507</v>
       </c>
       <c r="C1057" t="s">
@@ -29840,7 +30029,7 @@
       <c r="A1058">
         <v>1060</v>
       </c>
-      <c r="B1058" t="s">
+      <c r="B1058" s="1" t="s">
         <v>508</v>
       </c>
       <c r="C1058" t="s">
@@ -29944,7 +30133,7 @@
       <c r="A1062">
         <v>1064</v>
       </c>
-      <c r="B1062" t="s">
+      <c r="B1062" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C1062" t="s">
@@ -30074,7 +30263,7 @@
       <c r="A1067">
         <v>1069</v>
       </c>
-      <c r="B1067" t="s">
+      <c r="B1067" s="1" t="s">
         <v>512</v>
       </c>
       <c r="C1067" t="s">
@@ -30256,7 +30445,7 @@
       <c r="A1074">
         <v>1076</v>
       </c>
-      <c r="B1074" t="s">
+      <c r="B1074" s="1" t="s">
         <v>515</v>
       </c>
       <c r="C1074" t="s">
@@ -30308,7 +30497,7 @@
       <c r="A1076">
         <v>1078</v>
       </c>
-      <c r="B1076" t="s">
+      <c r="B1076" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C1076" t="s">
@@ -30516,7 +30705,7 @@
       <c r="A1084">
         <v>1086</v>
       </c>
-      <c r="B1084" t="s">
+      <c r="B1084" s="1" t="s">
         <v>518</v>
       </c>
       <c r="C1084" t="s">
@@ -31270,7 +31459,7 @@
       <c r="A1113">
         <v>1115</v>
       </c>
-      <c r="B1113" t="s">
+      <c r="B1113" s="1" t="s">
         <v>521</v>
       </c>
       <c r="C1113" t="s">
@@ -31426,7 +31615,7 @@
       <c r="A1119">
         <v>1121</v>
       </c>
-      <c r="B1119" t="s">
+      <c r="B1119" s="1" t="s">
         <v>523</v>
       </c>
       <c r="C1119" t="s">
@@ -31634,7 +31823,7 @@
       <c r="A1127">
         <v>1129</v>
       </c>
-      <c r="B1127" t="s">
+      <c r="B1127" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C1127" t="s">
@@ -31764,7 +31953,7 @@
       <c r="A1132">
         <v>1134</v>
       </c>
-      <c r="B1132" t="s">
+      <c r="B1132" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C1132" t="s">
@@ -31816,7 +32005,7 @@
       <c r="A1134">
         <v>1136</v>
       </c>
-      <c r="B1134" t="s">
+      <c r="B1134" s="1" t="s">
         <v>530</v>
       </c>
       <c r="C1134" t="s">
@@ -32388,7 +32577,7 @@
       <c r="A1156">
         <v>1158</v>
       </c>
-      <c r="B1156" t="s">
+      <c r="B1156" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C1156" t="s">
@@ -32726,7 +32915,7 @@
       <c r="A1169">
         <v>1171</v>
       </c>
-      <c r="B1169" t="s">
+      <c r="B1169" s="1" t="s">
         <v>536</v>
       </c>
       <c r="C1169" t="s">
@@ -32856,7 +33045,7 @@
       <c r="A1174">
         <v>1176</v>
       </c>
-      <c r="B1174" t="s">
+      <c r="B1174" s="1" t="s">
         <v>538</v>
       </c>
       <c r="C1174" t="s">
@@ -32960,7 +33149,7 @@
       <c r="A1178">
         <v>1180</v>
       </c>
-      <c r="B1178" t="s">
+      <c r="B1178" s="1" t="s">
         <v>541</v>
       </c>
       <c r="C1178" t="s">
@@ -33324,7 +33513,7 @@
       <c r="A1192">
         <v>1194</v>
       </c>
-      <c r="B1192" t="s">
+      <c r="B1192" s="1" t="s">
         <v>543</v>
       </c>
       <c r="C1192" t="s">
@@ -33506,7 +33695,7 @@
       <c r="A1199">
         <v>1201</v>
       </c>
-      <c r="B1199" t="s">
+      <c r="B1199" s="1" t="s">
         <v>545</v>
       </c>
       <c r="C1199" t="s">
@@ -34026,7 +34215,7 @@
       <c r="A1219">
         <v>1221</v>
       </c>
-      <c r="B1219" t="s">
+      <c r="B1219" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C1219" t="s">
@@ -34130,7 +34319,7 @@
       <c r="A1223">
         <v>1225</v>
       </c>
-      <c r="B1223" t="s">
+      <c r="B1223" s="1" t="s">
         <v>552</v>
       </c>
       <c r="C1223" t="s">
@@ -34156,7 +34345,7 @@
       <c r="A1224">
         <v>1226</v>
       </c>
-      <c r="B1224" t="s">
+      <c r="B1224" s="1" t="s">
         <v>553</v>
       </c>
       <c r="C1224" t="s">
@@ -34260,7 +34449,7 @@
       <c r="A1228">
         <v>1230</v>
       </c>
-      <c r="B1228" t="s">
+      <c r="B1228" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C1228" t="s">
@@ -34468,7 +34657,7 @@
       <c r="A1236">
         <v>1238</v>
       </c>
-      <c r="B1236" t="s">
+      <c r="B1236" s="1" t="s">
         <v>558</v>
       </c>
       <c r="C1236" t="s">
@@ -34494,7 +34683,7 @@
       <c r="A1237">
         <v>1239</v>
       </c>
-      <c r="B1237" t="s">
+      <c r="B1237" s="1" t="s">
         <v>558</v>
       </c>
       <c r="C1237" t="s">
@@ -34728,7 +34917,7 @@
       <c r="A1246">
         <v>1248</v>
       </c>
-      <c r="B1246" t="s">
+      <c r="B1246" s="1" t="s">
         <v>560</v>
       </c>
       <c r="C1246" t="s">
@@ -34962,7 +35151,7 @@
       <c r="A1255">
         <v>1257</v>
       </c>
-      <c r="B1255" t="s">
+      <c r="B1255" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C1255" t="s">
@@ -35040,7 +35229,7 @@
       <c r="A1258">
         <v>1260</v>
       </c>
-      <c r="B1258" t="s">
+      <c r="B1258" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C1258" t="s">
@@ -35092,7 +35281,7 @@
       <c r="A1260">
         <v>1262</v>
       </c>
-      <c r="B1260" t="s">
+      <c r="B1260" s="1" t="s">
         <v>564</v>
       </c>
       <c r="C1260" t="s">
@@ -35404,7 +35593,7 @@
       <c r="A1272">
         <v>1274</v>
       </c>
-      <c r="B1272" t="s">
+      <c r="B1272" s="1" t="s">
         <v>567</v>
       </c>
       <c r="C1272" t="s">
@@ -35586,7 +35775,7 @@
       <c r="A1279">
         <v>1281</v>
       </c>
-      <c r="B1279" t="s">
+      <c r="B1279" s="1" t="s">
         <v>513</v>
       </c>
       <c r="C1279" t="s">
@@ -35612,7 +35801,7 @@
       <c r="A1280">
         <v>1282</v>
       </c>
-      <c r="B1280" t="s">
+      <c r="B1280" s="1" t="s">
         <v>572</v>
       </c>
       <c r="C1280" t="s">
@@ -35742,7 +35931,7 @@
       <c r="A1285">
         <v>1287</v>
       </c>
-      <c r="B1285" t="s">
+      <c r="B1285" s="1" t="s">
         <v>574</v>
       </c>
       <c r="C1285" t="s">
@@ -36054,7 +36243,7 @@
       <c r="A1297">
         <v>1299</v>
       </c>
-      <c r="B1297" t="s">
+      <c r="B1297" s="1" t="s">
         <v>568</v>
       </c>
       <c r="C1297" t="s">
@@ -36210,7 +36399,7 @@
       <c r="A1303">
         <v>1305</v>
       </c>
-      <c r="B1303" t="s">
+      <c r="B1303" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C1303" t="s">
@@ -36522,7 +36711,7 @@
       <c r="A1315">
         <v>1317</v>
       </c>
-      <c r="B1315" t="s">
+      <c r="B1315" s="1" t="s">
         <v>584</v>
       </c>
       <c r="C1315" t="s">
@@ -36730,7 +36919,7 @@
       <c r="A1323">
         <v>1325</v>
       </c>
-      <c r="B1323" t="s">
+      <c r="B1323" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C1323" t="s">
@@ -37042,7 +37231,7 @@
       <c r="A1335">
         <v>1337</v>
       </c>
-      <c r="B1335" t="s">
+      <c r="B1335" s="1" t="s">
         <v>591</v>
       </c>
       <c r="C1335" t="s">
@@ -37068,7 +37257,7 @@
       <c r="A1336">
         <v>1338</v>
       </c>
-      <c r="B1336" t="s">
+      <c r="B1336" s="1" t="s">
         <v>542</v>
       </c>
       <c r="C1336" t="s">
@@ -37510,7 +37699,7 @@
       <c r="A1353">
         <v>1355</v>
       </c>
-      <c r="B1353" t="s">
+      <c r="B1353" s="1" t="s">
         <v>598</v>
       </c>
       <c r="C1353" t="s">
@@ -37536,7 +37725,7 @@
       <c r="A1354">
         <v>1356</v>
       </c>
-      <c r="B1354" t="s">
+      <c r="B1354" s="1" t="s">
         <v>598</v>
       </c>
       <c r="C1354" t="s">
@@ -37718,7 +37907,7 @@
       <c r="A1361">
         <v>1363</v>
       </c>
-      <c r="B1361" t="s">
+      <c r="B1361" s="1" t="s">
         <v>600</v>
       </c>
       <c r="C1361" t="s">
@@ -38030,7 +38219,7 @@
       <c r="A1373">
         <v>1375</v>
       </c>
-      <c r="B1373" t="s">
+      <c r="B1373" s="1" t="s">
         <v>544</v>
       </c>
       <c r="C1373" t="s">
@@ -38108,7 +38297,7 @@
       <c r="A1376">
         <v>1378</v>
       </c>
-      <c r="B1376" t="s">
+      <c r="B1376" s="1" t="s">
         <v>608</v>
       </c>
       <c r="C1376" t="s">
@@ -38316,7 +38505,7 @@
       <c r="A1384">
         <v>1386</v>
       </c>
-      <c r="B1384" t="s">
+      <c r="B1384" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C1384" t="s">
@@ -38368,7 +38557,7 @@
       <c r="A1386">
         <v>1388</v>
       </c>
-      <c r="B1386" t="s">
+      <c r="B1386" s="1" t="s">
         <v>612</v>
       </c>
       <c r="C1386" t="s">
@@ -38446,7 +38635,7 @@
       <c r="A1389">
         <v>1391</v>
       </c>
-      <c r="B1389" t="s">
+      <c r="B1389" s="1" t="s">
         <v>613</v>
       </c>
       <c r="C1389" t="s">
@@ -38706,7 +38895,7 @@
       <c r="A1399">
         <v>1401</v>
       </c>
-      <c r="B1399" t="s">
+      <c r="B1399" s="1" t="s">
         <v>619</v>
       </c>
       <c r="C1399" t="s">
@@ -38914,7 +39103,7 @@
       <c r="A1407">
         <v>1409</v>
       </c>
-      <c r="B1407" t="s">
+      <c r="B1407" s="1" t="s">
         <v>621</v>
       </c>
       <c r="C1407" t="s">
@@ -39070,7 +39259,7 @@
       <c r="A1413">
         <v>1415</v>
       </c>
-      <c r="B1413" t="s">
+      <c r="B1413" s="1" t="s">
         <v>624</v>
       </c>
       <c r="C1413" t="s">
@@ -39096,7 +39285,7 @@
       <c r="A1414">
         <v>1416</v>
       </c>
-      <c r="B1414" t="s">
+      <c r="B1414" s="1" t="s">
         <v>625</v>
       </c>
       <c r="C1414" t="s">
@@ -39148,7 +39337,7 @@
       <c r="A1416">
         <v>1418</v>
       </c>
-      <c r="B1416" t="s">
+      <c r="B1416" s="1" t="s">
         <v>627</v>
       </c>
       <c r="C1416" t="s">
@@ -39252,7 +39441,7 @@
       <c r="A1420">
         <v>1422</v>
       </c>
-      <c r="B1420" t="s">
+      <c r="B1420" s="1" t="s">
         <v>629</v>
       </c>
       <c r="C1420" t="s">
@@ -39304,7 +39493,7 @@
       <c r="A1422">
         <v>1424</v>
       </c>
-      <c r="B1422" t="s">
+      <c r="B1422" s="1" t="s">
         <v>630</v>
       </c>
       <c r="C1422" t="s">
@@ -39356,7 +39545,7 @@
       <c r="A1424">
         <v>1426</v>
       </c>
-      <c r="B1424" t="s">
+      <c r="B1424" s="1" t="s">
         <v>567</v>
       </c>
       <c r="C1424" t="s">
@@ -39668,7 +39857,7 @@
       <c r="A1436">
         <v>1438</v>
       </c>
-      <c r="B1436" t="s">
+      <c r="B1436" s="1" t="s">
         <v>635</v>
       </c>
       <c r="C1436" t="s">
@@ -39694,7 +39883,7 @@
       <c r="A1437">
         <v>1439</v>
       </c>
-      <c r="B1437" t="s">
+      <c r="B1437" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C1437" t="s">
@@ -39876,7 +40065,7 @@
       <c r="A1444">
         <v>1446</v>
       </c>
-      <c r="B1444" t="s">
+      <c r="B1444" s="1" t="s">
         <v>638</v>
       </c>
       <c r="C1444" t="s">
@@ -40240,7 +40429,7 @@
       <c r="A1458">
         <v>1460</v>
       </c>
-      <c r="B1458" t="s">
+      <c r="B1458" s="1" t="s">
         <v>642</v>
       </c>
       <c r="C1458" t="s">
@@ -40318,7 +40507,7 @@
       <c r="A1461">
         <v>1463</v>
       </c>
-      <c r="B1461" t="s">
+      <c r="B1461" s="1" t="s">
         <v>644</v>
       </c>
       <c r="C1461" t="s">
@@ -40578,7 +40767,7 @@
       <c r="A1471">
         <v>1473</v>
       </c>
-      <c r="B1471" t="s">
+      <c r="B1471" s="1" t="s">
         <v>647</v>
       </c>
       <c r="C1471" t="s">
@@ -40604,7 +40793,7 @@
       <c r="A1472">
         <v>1474</v>
       </c>
-      <c r="B1472" t="s">
+      <c r="B1472" s="1" t="s">
         <v>477</v>
       </c>
       <c r="C1472" t="s">
@@ -40760,7 +40949,7 @@
       <c r="A1478">
         <v>1480</v>
       </c>
-      <c r="B1478" t="s">
+      <c r="B1478" s="1" t="s">
         <v>650</v>
       </c>
       <c r="C1478" t="s">
@@ -40838,7 +41027,7 @@
       <c r="A1481">
         <v>1483</v>
       </c>
-      <c r="B1481" t="s">
+      <c r="B1481" s="1" t="s">
         <v>651</v>
       </c>
       <c r="C1481" t="s">
@@ -40864,7 +41053,7 @@
       <c r="A1482">
         <v>1484</v>
       </c>
-      <c r="B1482" t="s">
+      <c r="B1482" s="1" t="s">
         <v>557</v>
       </c>
       <c r="C1482" t="s">
@@ -40913,6 +41102,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E1483" xr:uid="{41D2FC6E-9A3F-468F-B117-FECDB9269C50}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -40921,8 +41111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DF44CB-39C0-4A3A-99D4-9D12F5B6AFFD}">
   <dimension ref="A1:H357"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B352" sqref="B352"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50215,4 +50405,4788 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D23BA3-AAB1-4EB9-BD6F-C9940CFFD55B}">
+  <dimension ref="A1:L183"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12">
+        <v>323</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2912</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5940</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1383.69</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12">
+        <v>430</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12">
+        <v>122</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="12">
+        <v>148.4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1327</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12">
+        <v>189</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12">
+        <v>235</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12">
+        <v>23.5</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="12">
+        <v>42.2</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="12">
+        <v>600</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12">
+        <v>806.6</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12">
+        <v>806.6</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12">
+        <v>460.51</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12">
+        <v>25156</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="12">
+        <v>632.5</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12">
+        <v>462</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="12">
+        <v>16000</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="12">
+        <v>6563</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1260</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="12">
+        <v>112.2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12">
+        <v>178.75</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="12">
+        <v>400</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="12">
+        <v>4882</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="12">
+        <v>63</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="12">
+        <v>610</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="12">
+        <v>983</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="12">
+        <v>126.8</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="12">
+        <v>60</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="12">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="12">
+        <v>22090</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="12">
+        <v>795</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="12">
+        <v>359</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="12">
+        <v>4206</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="12">
+        <v>192</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="12">
+        <v>551</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="12">
+        <v>147</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="12">
+        <v>606</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1781</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1410</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="12">
+        <v>196.8</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="12">
+        <v>4008</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>1</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="12">
+        <v>35</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="12">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12">
+        <v>1</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="12">
+        <v>232.75</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12">
+        <v>1</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="12">
+        <v>32590</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="12">
+        <v>181</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="12">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12">
+        <v>1</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="12">
+        <v>29.5</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="12">
+        <v>2100</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="12">
+        <v>1</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="18">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1422</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>1</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="18">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="12">
+        <v>285</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="12">
+        <v>1</v>
+      </c>
+      <c r="G55" s="12">
+        <v>1</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="18">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="12">
+        <v>18.5</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="12">
+        <v>129</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <v>1</v>
+      </c>
+      <c r="H57" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="12">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="12">
+        <v>1</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="12">
+        <v>1</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+      <c r="H59" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="18">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="12">
+        <v>879.75</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" s="12">
+        <v>1</v>
+      </c>
+      <c r="G60" s="12">
+        <v>1</v>
+      </c>
+      <c r="H60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="18">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="12">
+        <v>836.53</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F61" s="12">
+        <v>1</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
+      <c r="H61" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="12">
+        <v>650</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>1</v>
+      </c>
+      <c r="H62" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="18">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="12">
+        <v>2600</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" s="12">
+        <v>1</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="18">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="12">
+        <v>6410</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="12">
+        <v>1</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="12">
+        <v>105</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0</v>
+      </c>
+      <c r="H65" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1536.43</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F66" s="12">
+        <v>1</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+      <c r="H66" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="12">
+        <v>126</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="12">
+        <v>1</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0</v>
+      </c>
+      <c r="H67" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="18">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="12">
+        <v>421</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68" s="12">
+        <v>1</v>
+      </c>
+      <c r="G68" s="12">
+        <v>0</v>
+      </c>
+      <c r="H68" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="18">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="12">
+        <v>530</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" s="12">
+        <v>1</v>
+      </c>
+      <c r="G69" s="12">
+        <v>1</v>
+      </c>
+      <c r="H69" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="18">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2750</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="12">
+        <v>1</v>
+      </c>
+      <c r="G70" s="12">
+        <v>1</v>
+      </c>
+      <c r="H70" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="18">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1030</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
+        <v>1</v>
+      </c>
+      <c r="H71" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="18">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="12">
+        <v>447</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>1</v>
+      </c>
+      <c r="H72" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="12">
+        <v>469</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="18">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="12">
+        <v>420</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+      <c r="G74" s="12">
+        <v>1</v>
+      </c>
+      <c r="H74" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="18">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="12">
+        <v>3600</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="12">
+        <v>1</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
+        <v>74</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="12">
+        <v>526</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" s="12">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1</v>
+      </c>
+      <c r="H76" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="18">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="12">
+        <v>31.98</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F77" s="12">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12">
+        <v>1</v>
+      </c>
+      <c r="H77" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="12">
+        <v>14399</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="12">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
+        <v>0</v>
+      </c>
+      <c r="H78" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="18">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="12">
+        <v>14399</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="12">
+        <v>42251</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0</v>
+      </c>
+      <c r="H80" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="12">
+        <v>123.6</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F81" s="12">
+        <v>1</v>
+      </c>
+      <c r="G81" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="18">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="12">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="12">
+        <v>1</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="18">
+        <v>81</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="12">
+        <v>104</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F83" s="12">
+        <v>1</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="18">
+        <v>82</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84" s="12">
+        <v>1</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="18">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="12">
+        <v>55</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F85" s="12">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <v>1</v>
+      </c>
+      <c r="H85" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="18">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="12">
+        <v>55</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F86" s="12">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
+        <v>1</v>
+      </c>
+      <c r="H86" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="18">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="12">
+        <v>194</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F87" s="12">
+        <v>1</v>
+      </c>
+      <c r="G87" s="12">
+        <v>0</v>
+      </c>
+      <c r="H87" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="18">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="12">
+        <v>61</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F88" s="12">
+        <v>1</v>
+      </c>
+      <c r="G88" s="12">
+        <v>0</v>
+      </c>
+      <c r="H88" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="18">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F89" s="12">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>1</v>
+      </c>
+      <c r="H89" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="18">
+        <v>88</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="12">
+        <v>274</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" s="12">
+        <v>1</v>
+      </c>
+      <c r="G90" s="12">
+        <v>0</v>
+      </c>
+      <c r="H90" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="18">
+        <v>89</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="12">
+        <v>85</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F91" s="12">
+        <v>1</v>
+      </c>
+      <c r="G91" s="12">
+        <v>0</v>
+      </c>
+      <c r="H91" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="18">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="12">
+        <v>104.59</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F92" s="12">
+        <v>1</v>
+      </c>
+      <c r="G92" s="12">
+        <v>0</v>
+      </c>
+      <c r="H92" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="18">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="12">
+        <v>88.4</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="12">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12">
+        <v>0</v>
+      </c>
+      <c r="H93" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="18">
+        <v>92</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="12">
+        <v>1489.46</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="12">
+        <v>0</v>
+      </c>
+      <c r="G94" s="12">
+        <v>0</v>
+      </c>
+      <c r="H94" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="18">
+        <v>93</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="12">
+        <v>1489.46</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="12">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="18">
+        <v>94</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="12">
+        <v>31.38</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F96" s="12">
+        <v>1</v>
+      </c>
+      <c r="G96" s="12">
+        <v>0</v>
+      </c>
+      <c r="H96" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="18">
+        <v>95</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="12">
+        <v>195</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F97" s="12">
+        <v>1</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+      <c r="H97" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="18">
+        <v>96</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="12">
+        <v>252</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F98" s="12">
+        <v>1</v>
+      </c>
+      <c r="G98" s="12">
+        <v>1</v>
+      </c>
+      <c r="H98" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="18">
+        <v>97</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="12">
+        <v>40</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F99" s="12">
+        <v>1</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0</v>
+      </c>
+      <c r="H99" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="18">
+        <v>98</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="12">
+        <v>675</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" s="12">
+        <v>1</v>
+      </c>
+      <c r="G100" s="12">
+        <v>1</v>
+      </c>
+      <c r="H100" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="18">
+        <v>99</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="12">
+        <v>638</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>1</v>
+      </c>
+      <c r="H101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="18">
+        <v>100</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="12">
+        <v>405</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F102" s="12">
+        <v>1</v>
+      </c>
+      <c r="G102" s="12">
+        <v>1</v>
+      </c>
+      <c r="H102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="18">
+        <v>101</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="12">
+        <v>1850</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F103" s="12">
+        <v>1</v>
+      </c>
+      <c r="G103" s="12">
+        <v>0</v>
+      </c>
+      <c r="H103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="18">
+        <v>102</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="12">
+        <v>741</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="12">
+        <v>0</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0</v>
+      </c>
+      <c r="H104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="18">
+        <v>103</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="12">
+        <v>80.75</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F105" s="12">
+        <v>1</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0</v>
+      </c>
+      <c r="H105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="18">
+        <v>104</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="12">
+        <v>107</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F106" s="12">
+        <v>0</v>
+      </c>
+      <c r="G106" s="12">
+        <v>0</v>
+      </c>
+      <c r="H106" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="18">
+        <v>105</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="12">
+        <v>1275</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F107" s="12">
+        <v>0</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0</v>
+      </c>
+      <c r="H107" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="18">
+        <v>106</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="12">
+        <v>17</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F108" s="12">
+        <v>1</v>
+      </c>
+      <c r="G108" s="12">
+        <v>1</v>
+      </c>
+      <c r="H108" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="18">
+        <v>107</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="12">
+        <v>1760</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" s="12">
+        <v>1</v>
+      </c>
+      <c r="G109" s="12">
+        <v>0</v>
+      </c>
+      <c r="H109" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="18">
+        <v>108</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="12">
+        <v>720</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F110" s="12">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0</v>
+      </c>
+      <c r="H110" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="18">
+        <v>109</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="12">
+        <v>99.6</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F111" s="12">
+        <v>1</v>
+      </c>
+      <c r="G111" s="12">
+        <v>1</v>
+      </c>
+      <c r="H111" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="18">
+        <v>110</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="12">
+        <v>3300</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F112" s="12">
+        <v>1</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0</v>
+      </c>
+      <c r="H112" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="18">
+        <v>111</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="12">
+        <v>220.7</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113" s="12">
+        <v>1</v>
+      </c>
+      <c r="G113" s="12">
+        <v>0</v>
+      </c>
+      <c r="H113" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="18">
+        <v>112</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="12">
+        <v>3399</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F114" s="12">
+        <v>1</v>
+      </c>
+      <c r="G114" s="12">
+        <v>1</v>
+      </c>
+      <c r="H114" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="18">
+        <v>113</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="12">
+        <v>554</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F115" s="12">
+        <v>1</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0</v>
+      </c>
+      <c r="H115" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="18">
+        <v>114</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="12">
+        <v>317</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F116" s="12">
+        <v>1</v>
+      </c>
+      <c r="G116" s="12">
+        <v>1</v>
+      </c>
+      <c r="H116" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="18">
+        <v>115</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="12">
+        <v>218</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F117" s="12">
+        <v>1</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0</v>
+      </c>
+      <c r="H117" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="18">
+        <v>116</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="12">
+        <v>3600</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F118" s="12">
+        <v>0</v>
+      </c>
+      <c r="G118" s="12">
+        <v>0</v>
+      </c>
+      <c r="H118" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="18">
+        <v>117</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F119" s="12">
+        <v>1</v>
+      </c>
+      <c r="G119" s="12">
+        <v>0</v>
+      </c>
+      <c r="H119" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="18">
+        <v>118</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F120" s="12">
+        <v>1</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
+      <c r="H120" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="18">
+        <v>119</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F121" s="12">
+        <v>1</v>
+      </c>
+      <c r="G121" s="12">
+        <v>0</v>
+      </c>
+      <c r="H121" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="18">
+        <v>120</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F122" s="12">
+        <v>0</v>
+      </c>
+      <c r="G122" s="12">
+        <v>0</v>
+      </c>
+      <c r="H122" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="18">
+        <v>121</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F123" s="12">
+        <v>1</v>
+      </c>
+      <c r="G123" s="12">
+        <v>1</v>
+      </c>
+      <c r="H123" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="18">
+        <v>122</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="12">
+        <v>47.5</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="12">
+        <v>1</v>
+      </c>
+      <c r="G124" s="12">
+        <v>0</v>
+      </c>
+      <c r="H124" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="18">
+        <v>123</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" s="12">
+        <v>1145</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F125" s="12">
+        <v>1</v>
+      </c>
+      <c r="G125" s="12">
+        <v>0</v>
+      </c>
+      <c r="H125" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="18">
+        <v>124</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="12">
+        <v>1395</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="12">
+        <v>0</v>
+      </c>
+      <c r="G126" s="12">
+        <v>0</v>
+      </c>
+      <c r="H126" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="18">
+        <v>125</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="12">
+        <v>1725</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F127" s="12">
+        <v>1</v>
+      </c>
+      <c r="G127" s="12">
+        <v>0</v>
+      </c>
+      <c r="H127" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="18">
+        <v>126</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="12">
+        <v>320</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F128" s="12">
+        <v>1</v>
+      </c>
+      <c r="G128" s="12">
+        <v>1</v>
+      </c>
+      <c r="H128" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="18">
+        <v>127</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="12">
+        <v>128</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F129" s="12">
+        <v>1</v>
+      </c>
+      <c r="G129" s="12">
+        <v>0</v>
+      </c>
+      <c r="H129" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="18">
+        <v>128</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" s="12">
+        <v>4000</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F130" s="12">
+        <v>1</v>
+      </c>
+      <c r="G130" s="12">
+        <v>0</v>
+      </c>
+      <c r="H130" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="18">
+        <v>129</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="12">
+        <v>121</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F131" s="12">
+        <v>1</v>
+      </c>
+      <c r="G131" s="12">
+        <v>0</v>
+      </c>
+      <c r="H131" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="18">
+        <v>130</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="12">
+        <v>2300</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F132" s="12">
+        <v>1</v>
+      </c>
+      <c r="G132" s="12">
+        <v>0</v>
+      </c>
+      <c r="H132" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="18">
+        <v>131</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="12">
+        <v>750</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" s="12">
+        <v>0</v>
+      </c>
+      <c r="G133" s="12">
+        <v>1</v>
+      </c>
+      <c r="H133" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="18">
+        <v>132</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="12">
+        <v>420</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F134" s="12">
+        <v>1</v>
+      </c>
+      <c r="G134" s="12">
+        <v>1</v>
+      </c>
+      <c r="H134" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="18">
+        <v>133</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="12">
+        <v>8000</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F135" s="12">
+        <v>1</v>
+      </c>
+      <c r="G135" s="12">
+        <v>1</v>
+      </c>
+      <c r="H135" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="18">
+        <v>134</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="12">
+        <v>1300</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F136" s="12">
+        <v>0</v>
+      </c>
+      <c r="G136" s="12">
+        <v>0</v>
+      </c>
+      <c r="H136" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="18">
+        <v>135</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="12">
+        <v>223.8</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F137" s="12">
+        <v>0</v>
+      </c>
+      <c r="G137" s="12">
+        <v>1</v>
+      </c>
+      <c r="H137" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="18">
+        <v>136</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="12">
+        <v>30</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F138" s="12">
+        <v>1</v>
+      </c>
+      <c r="G138" s="12">
+        <v>0</v>
+      </c>
+      <c r="H138" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="18">
+        <v>137</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="12">
+        <v>325</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F139" s="12">
+        <v>1</v>
+      </c>
+      <c r="G139" s="12">
+        <v>0</v>
+      </c>
+      <c r="H139" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="18">
+        <v>138</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="12">
+        <v>46</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F140" s="12">
+        <v>1</v>
+      </c>
+      <c r="G140" s="12">
+        <v>0</v>
+      </c>
+      <c r="H140" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="18">
+        <v>139</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="12">
+        <v>1590</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F141" s="12">
+        <v>1</v>
+      </c>
+      <c r="G141" s="12">
+        <v>0</v>
+      </c>
+      <c r="H141" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="18">
+        <v>140</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="12">
+        <v>32000</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F142" s="12">
+        <v>0</v>
+      </c>
+      <c r="G142" s="12">
+        <v>0</v>
+      </c>
+      <c r="H142" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="18">
+        <v>141</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="12">
+        <v>16000</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F143" s="12">
+        <v>0</v>
+      </c>
+      <c r="G143" s="12">
+        <v>0</v>
+      </c>
+      <c r="H143" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="18">
+        <v>142</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="12">
+        <v>1220</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F144" s="12">
+        <v>1</v>
+      </c>
+      <c r="G144" s="12">
+        <v>1</v>
+      </c>
+      <c r="H144" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="18">
+        <v>143</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="12">
+        <v>1590</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F145" s="12">
+        <v>1</v>
+      </c>
+      <c r="G145" s="12">
+        <v>0</v>
+      </c>
+      <c r="H145" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="18">
+        <v>144</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="12">
+        <v>1390</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F146" s="12">
+        <v>0</v>
+      </c>
+      <c r="G146" s="12">
+        <v>0</v>
+      </c>
+      <c r="H146" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="18">
+        <v>145</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="12">
+        <v>420</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F147" s="12">
+        <v>1</v>
+      </c>
+      <c r="G147" s="12">
+        <v>0</v>
+      </c>
+      <c r="H147" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="18">
+        <v>146</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="12">
+        <v>200</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F148" s="12">
+        <v>1</v>
+      </c>
+      <c r="G148" s="12">
+        <v>0</v>
+      </c>
+      <c r="H148" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="18">
+        <v>147</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="12">
+        <v>45</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" s="12">
+        <v>1</v>
+      </c>
+      <c r="G149" s="12">
+        <v>0</v>
+      </c>
+      <c r="H149" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="18">
+        <v>148</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="12">
+        <v>11230</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" s="12">
+        <v>0</v>
+      </c>
+      <c r="G150" s="12">
+        <v>0</v>
+      </c>
+      <c r="H150" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="18">
+        <v>149</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" s="12">
+        <v>2136</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F151" s="12">
+        <v>1</v>
+      </c>
+      <c r="G151" s="12">
+        <v>1</v>
+      </c>
+      <c r="H151" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="18">
+        <v>150</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="12">
+        <v>738</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F152" s="12">
+        <v>0</v>
+      </c>
+      <c r="G152" s="12">
+        <v>1</v>
+      </c>
+      <c r="H152" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="18">
+        <v>151</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="12">
+        <v>3750</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F153" s="12">
+        <v>1</v>
+      </c>
+      <c r="G153" s="12">
+        <v>0</v>
+      </c>
+      <c r="H153" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="18">
+        <v>152</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="12">
+        <v>4900</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F154" s="12">
+        <v>1</v>
+      </c>
+      <c r="G154" s="12">
+        <v>0</v>
+      </c>
+      <c r="H154" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="18">
+        <v>153</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" s="12">
+        <v>0</v>
+      </c>
+      <c r="G155" s="12">
+        <v>0</v>
+      </c>
+      <c r="H155" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="18">
+        <v>154</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="12">
+        <v>6750</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F156" s="12">
+        <v>1</v>
+      </c>
+      <c r="G156" s="12">
+        <v>0</v>
+      </c>
+      <c r="H156" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="18">
+        <v>155</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F157" s="12">
+        <v>0</v>
+      </c>
+      <c r="G157" s="12">
+        <v>1</v>
+      </c>
+      <c r="H157" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="18">
+        <v>156</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="12">
+        <v>2400</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F158" s="12">
+        <v>0</v>
+      </c>
+      <c r="G158" s="12">
+        <v>0</v>
+      </c>
+      <c r="H158" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="18">
+        <v>157</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="12">
+        <v>3360</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" s="12">
+        <v>0</v>
+      </c>
+      <c r="G159" s="12">
+        <v>0</v>
+      </c>
+      <c r="H159" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="18">
+        <v>158</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="12">
+        <v>734</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F160" s="12">
+        <v>1</v>
+      </c>
+      <c r="G160" s="12">
+        <v>0</v>
+      </c>
+      <c r="H160" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="18">
+        <v>159</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="12">
+        <v>335</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F161" s="12">
+        <v>1</v>
+      </c>
+      <c r="G161" s="12">
+        <v>0</v>
+      </c>
+      <c r="H161" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="18">
+        <v>160</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="12">
+        <v>120</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F162" s="12">
+        <v>1</v>
+      </c>
+      <c r="G162" s="12">
+        <v>1</v>
+      </c>
+      <c r="H162" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="18">
+        <v>161</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="12">
+        <v>2500</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F163" s="12">
+        <v>1</v>
+      </c>
+      <c r="G163" s="12">
+        <v>1</v>
+      </c>
+      <c r="H163" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="18">
+        <v>162</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="12">
+        <v>21</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F164" s="12">
+        <v>1</v>
+      </c>
+      <c r="G164" s="12">
+        <v>1</v>
+      </c>
+      <c r="H164" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="18">
+        <v>163</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="12">
+        <v>1150</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F165" s="12">
+        <v>1</v>
+      </c>
+      <c r="G165" s="12">
+        <v>0</v>
+      </c>
+      <c r="H165" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="18">
+        <v>164</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="12">
+        <v>3350</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F166" s="12">
+        <v>1</v>
+      </c>
+      <c r="G166" s="12">
+        <v>0</v>
+      </c>
+      <c r="H166" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="18">
+        <v>165</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="12">
+        <v>190</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F167" s="12">
+        <v>0</v>
+      </c>
+      <c r="G167" s="12">
+        <v>0</v>
+      </c>
+      <c r="H167" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="18">
+        <v>166</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" s="12">
+        <v>48</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F168" s="12">
+        <v>1</v>
+      </c>
+      <c r="G168" s="12">
+        <v>0</v>
+      </c>
+      <c r="H168" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="18">
+        <v>167</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="12">
+        <v>794</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F169" s="12">
+        <v>1</v>
+      </c>
+      <c r="G169" s="12">
+        <v>0</v>
+      </c>
+      <c r="H169" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="18">
+        <v>168</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="12">
+        <v>12980</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F170" s="12">
+        <v>1</v>
+      </c>
+      <c r="G170" s="12">
+        <v>0</v>
+      </c>
+      <c r="H170" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="18">
+        <v>169</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="12">
+        <v>992</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F171" s="12">
+        <v>0</v>
+      </c>
+      <c r="G171" s="12">
+        <v>0</v>
+      </c>
+      <c r="H171" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="18">
+        <v>170</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="12">
+        <v>10630</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F172" s="12">
+        <v>0</v>
+      </c>
+      <c r="G172" s="12">
+        <v>1</v>
+      </c>
+      <c r="H172" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="18">
+        <v>171</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="12">
+        <v>153</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F173" s="12">
+        <v>1</v>
+      </c>
+      <c r="G173" s="12">
+        <v>0</v>
+      </c>
+      <c r="H173" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="18">
+        <v>172</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D174" s="12">
+        <v>910</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F174" s="12">
+        <v>1</v>
+      </c>
+      <c r="G174" s="12">
+        <v>0</v>
+      </c>
+      <c r="H174" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="18">
+        <v>173</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="12">
+        <v>100</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F175" s="12">
+        <v>1</v>
+      </c>
+      <c r="G175" s="12">
+        <v>0</v>
+      </c>
+      <c r="H175" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="18">
+        <v>174</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="12">
+        <v>82</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F176" s="12">
+        <v>1</v>
+      </c>
+      <c r="G176" s="12">
+        <v>0</v>
+      </c>
+      <c r="H176" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="18">
+        <v>175</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="12">
+        <v>3600</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F177" s="12">
+        <v>0</v>
+      </c>
+      <c r="G177" s="12">
+        <v>0</v>
+      </c>
+      <c r="H177" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="18">
+        <v>176</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="12">
+        <v>1440</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F178" s="12">
+        <v>1</v>
+      </c>
+      <c r="G178" s="12">
+        <v>0</v>
+      </c>
+      <c r="H178" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="18">
+        <v>177</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="12">
+        <v>664</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F179" s="12">
+        <v>0</v>
+      </c>
+      <c r="G179" s="12">
+        <v>0</v>
+      </c>
+      <c r="H179" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="18">
+        <v>178</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" s="12">
+        <v>264</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F180" s="12">
+        <v>0</v>
+      </c>
+      <c r="G180" s="12">
+        <v>0</v>
+      </c>
+      <c r="H180" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="18">
+        <v>179</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" s="12">
+        <v>520</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F181" s="12">
+        <v>1</v>
+      </c>
+      <c r="G181" s="12">
+        <v>0</v>
+      </c>
+      <c r="H181" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="18">
+        <v>180</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="12">
+        <v>900</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F182" s="12">
+        <v>0</v>
+      </c>
+      <c r="G182" s="12">
+        <v>1</v>
+      </c>
+      <c r="H182" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="19">
+        <v>181</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="13">
+        <v>2500</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F183" s="13">
+        <v>0</v>
+      </c>
+      <c r="G183" s="13">
+        <v>0</v>
+      </c>
+      <c r="H183" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H183" xr:uid="{E5B71CDB-36F7-40F5-9046-DBCBC76ED247}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>